--- a/IEEE_Geovisualization_Metadata.xlsx
+++ b/IEEE_Geovisualization_Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c592a566a4be90af/Documents/GitHub/IEEE_Geovisualization_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:20001_{4F8E7F78-3540-492A-838C-EA95E9010A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42251A9D-7A2A-40FE-B520-FE5C1A45FFC0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:20001_{4F8E7F78-3540-492A-838C-EA95E9010A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D8926F9-EC59-4490-BB82-3BFD42A34A16}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Top 220 = TRUE" guid="{99CC8D2F-4AFD-4C3B-91FD-6F01A3819D6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{D6CFBA7F-5641-4705-A548-9E713C2F18F0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1BC51DF4-9646-4F89-A80E-80C9E42943BA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{DE50BB55-77B3-4039-A390-0C3FD26E2025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1BC51DF4-9646-4F89-A80E-80C9E42943BA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{D6CFBA7F-5641-4705-A548-9E713C2F18F0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Top 220 = TRUE" guid="{99CC8D2F-4AFD-4C3B-91FD-6F01A3819D6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36260,10 +36260,10 @@
   <dimension ref="A1:Y985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="L401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="T423" sqref="T423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -68448,7 +68448,7 @@
         <v>0</v>
       </c>
       <c r="T418" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U418" s="17">
         <v>3</v>
@@ -81804,13 +81804,9 @@
   </sheetData>
   <autoFilter ref="A1:Y586" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
-    <customSheetView guid="{DE50BB55-77B3-4039-A390-0C3FD26E2025}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D6CFBA7F-5641-4705-A548-9E713C2F18F0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA586" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{1BC51DF4-9646-4F89-A80E-80C9E42943BA}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA586" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:AA581" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{99CC8D2F-4AFD-4C3B-91FD-6F01A3819D6C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -81822,9 +81818,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D6CFBA7F-5641-4705-A548-9E713C2F18F0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1BC51DF4-9646-4F89-A80E-80C9E42943BA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA581" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:AA586" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{DE50BB55-77B3-4039-A390-0C3FD26E2025}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA586" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="Q2:V581 W2:W586">
